--- a/Excel/04-Amt-by-period.xlsx
+++ b/Excel/04-Amt-by-period.xlsx
@@ -1,40 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A4/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{428FF6D1-B2AA-4B19-BAD3-3976D8B5891D}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="11_4407D90E547F242EEA22E4B75BC69E7FC8C566A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2CB2A59-85B8-4A9D-A809-9EB987D18315}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="2472" windowWidth="10812" windowHeight="9852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14028" yWindow="2052" windowWidth="8904" windowHeight="10116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="251128" sheetId="22" r:id="rId1"/>
-    <sheet name="251031" sheetId="21" r:id="rId2"/>
-    <sheet name="250926" sheetId="20" r:id="rId3"/>
-    <sheet name="250919" sheetId="19" r:id="rId4"/>
-    <sheet name="250912" sheetId="18" r:id="rId5"/>
-    <sheet name="250905" sheetId="17" r:id="rId6"/>
-    <sheet name="250815" sheetId="16" r:id="rId7"/>
-    <sheet name="250808" sheetId="15" r:id="rId8"/>
-    <sheet name="250718" sheetId="14" r:id="rId9"/>
-    <sheet name="250704" sheetId="13" r:id="rId10"/>
-    <sheet name="250627" sheetId="12" r:id="rId11"/>
-    <sheet name="250620" sheetId="11" r:id="rId12"/>
-    <sheet name="250613" sheetId="10" r:id="rId13"/>
-    <sheet name="250530" sheetId="9" r:id="rId14"/>
-    <sheet name="250523" sheetId="8" r:id="rId15"/>
-    <sheet name="250516" sheetId="7" r:id="rId16"/>
-    <sheet name="250509" sheetId="6" r:id="rId17"/>
-    <sheet name="250502" sheetId="5" r:id="rId18"/>
-    <sheet name="250411" sheetId="4" r:id="rId19"/>
-    <sheet name="250221" sheetId="3" r:id="rId20"/>
-    <sheet name="250131" sheetId="2" r:id="rId21"/>
-    <sheet name="1230" sheetId="1" r:id="rId22"/>
+    <sheet name="251230" sheetId="23" r:id="rId1"/>
+    <sheet name="251128" sheetId="22" r:id="rId2"/>
+    <sheet name="251031" sheetId="21" r:id="rId3"/>
+    <sheet name="250926" sheetId="20" r:id="rId4"/>
+    <sheet name="250919" sheetId="19" r:id="rId5"/>
+    <sheet name="250912" sheetId="18" r:id="rId6"/>
+    <sheet name="250905" sheetId="17" r:id="rId7"/>
+    <sheet name="250815" sheetId="16" r:id="rId8"/>
+    <sheet name="250808" sheetId="15" r:id="rId9"/>
+    <sheet name="250718" sheetId="14" r:id="rId10"/>
+    <sheet name="250704" sheetId="13" r:id="rId11"/>
+    <sheet name="250627" sheetId="12" r:id="rId12"/>
+    <sheet name="250620" sheetId="11" r:id="rId13"/>
+    <sheet name="250613" sheetId="10" r:id="rId14"/>
+    <sheet name="250530" sheetId="9" r:id="rId15"/>
+    <sheet name="250523" sheetId="8" r:id="rId16"/>
+    <sheet name="250516" sheetId="7" r:id="rId17"/>
+    <sheet name="250509" sheetId="6" r:id="rId18"/>
+    <sheet name="250502" sheetId="5" r:id="rId19"/>
+    <sheet name="250411" sheetId="4" r:id="rId20"/>
+    <sheet name="250221" sheetId="3" r:id="rId21"/>
+    <sheet name="250131" sheetId="2" r:id="rId22"/>
+    <sheet name="1230" sheetId="1" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="9">
   <si>
     <t>As end of</t>
   </si>
@@ -192,10 +193,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,10 +491,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542C8022-6FAB-4827-AFA2-E1EDA7432C87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66219EEC-5DA1-4A33-9F60-7AB6DE9863CC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>46386</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1259.67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>2.3713087555403624E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1752300</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-1063500</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.60691662386577638</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3248500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1303865</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.40137448052947516</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>603340</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-447370</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.74148904431995222</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5604140</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2814735</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.50225993640415834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5166700</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1652290</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.31979600131612052</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>284160</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4998354849323555E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10770840</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-4467025</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.41473320558099463</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45989</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1256.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>-4.032836960672008E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1752300</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-1075520</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.61377617987787481</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3248500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1365410</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.42032014776050486</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>603340</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-449480</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.74498624324593099</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5604140</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2890410</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.51576334638320953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5166700</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1747535</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.33823039851355796</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>284160</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.4998354849323555E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10770840</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-4637945</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.43060197719026555</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EF463-2F30-449E-9ACA-B3134C3C5447}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -513,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="9">
-        <v>45989</v>
+        <v>45856</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1256.69</v>
+        <v>1206.58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E2" s="8">
         <f>(E1-E13)/E13</f>
-        <v>-4.032836960672008E-2</v>
+        <v>7.7361287211814803E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -545,22 +873,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>1752300</v>
+        <v>503540</v>
       </c>
       <c r="C4" s="7">
-        <v>-1075520</v>
+        <v>-350840</v>
       </c>
       <c r="D4" s="5">
         <f>C4/B4</f>
-        <v>-0.61377617987787481</v>
+        <v>-0.69674703102037572</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -568,14 +896,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>3248500</v>
+        <v>3591550</v>
       </c>
       <c r="C5" s="7">
-        <v>-1365410</v>
+        <v>-1314900</v>
       </c>
       <c r="D5" s="5">
         <f>C5/B5</f>
-        <v>-0.42032014776050486</v>
+        <v>-0.36610933997856077</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -586,32 +914,32 @@
         <v>1</v>
       </c>
       <c r="B6" s="7">
-        <v>603340</v>
+        <v>1632240</v>
       </c>
       <c r="C6" s="7">
-        <v>-449480</v>
+        <v>-1153940</v>
       </c>
       <c r="D6" s="5">
         <f>C6/B6</f>
-        <v>-0.74498624324593099</v>
+        <v>-0.70696711267950796</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="6">
         <f>SUM(B4:B6)</f>
-        <v>5604140</v>
+        <v>5727330</v>
       </c>
       <c r="C7" s="6">
         <f>SUM(C4:C6)</f>
-        <v>-2890410</v>
+        <v>-2819680</v>
       </c>
       <c r="D7" s="5">
         <f>C7/B7</f>
-        <v>-0.51576334638320953</v>
+        <v>-0.49232015616351771</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,27 +954,27 @@
         <v>2</v>
       </c>
       <c r="B9" s="7">
-        <v>5166700</v>
+        <v>5036250</v>
       </c>
       <c r="C9" s="7">
-        <v>-1747535</v>
+        <v>-1834700</v>
       </c>
       <c r="D9" s="5">
         <f>C9/B9</f>
-        <v>-0.33823039851355796</v>
+        <v>-0.36429883345743358</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7">
-        <v>284160</v>
+        <v>276670</v>
       </c>
       <c r="D10" s="5">
         <f>C10/B9</f>
-        <v>5.4998354849323555E-2</v>
+        <v>5.4935716058575328E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -655,19 +983,19 @@
       </c>
       <c r="B11" s="6">
         <f>B7+B9</f>
-        <v>10770840</v>
+        <v>10763580</v>
       </c>
       <c r="C11" s="6">
         <f>C7+C9</f>
-        <v>-4637945</v>
+        <v>-4654380</v>
       </c>
       <c r="D11" s="5">
         <f>C11/B11</f>
-        <v>-0.43060197719026555</v>
+        <v>-0.43241932516876358</v>
       </c>
       <c r="E11">
         <f>E4+E5+E6+E9</f>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -675,18 +1003,18 @@
         <v>0</v>
       </c>
       <c r="C13" s="9">
-        <v>45961</v>
+        <v>45842</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1309.5</v>
+        <v>1119.94</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="8">
-        <v>0</v>
+        <v>3.4663069788067456E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -711,16 +1039,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="7">
-        <v>1752300</v>
+        <v>677540</v>
       </c>
       <c r="C16" s="7">
-        <v>-982080</v>
+        <v>-489280</v>
       </c>
       <c r="D16" s="5">
-        <v>-0.56045197740112995</v>
+        <v>-0.72214186616288334</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -728,13 +1056,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="7">
-        <v>3248500</v>
+        <v>3591550</v>
       </c>
       <c r="C17" s="7">
-        <v>-1269700</v>
+        <v>-1415000</v>
       </c>
       <c r="D17" s="5">
-        <v>-0.39085731876250579</v>
+        <v>-0.39398031490582058</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -745,28 +1073,28 @@
         <v>1</v>
       </c>
       <c r="B18" s="7">
-        <v>603340</v>
+        <v>1632240</v>
       </c>
       <c r="C18" s="7">
-        <v>-434590</v>
+        <v>-1193370</v>
       </c>
       <c r="D18" s="5">
-        <v>-0.72030695793416644</v>
+        <v>-0.73112409939714751</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
-        <v>5604140</v>
+        <v>5901330</v>
       </c>
       <c r="C19" s="6">
-        <v>-2686370</v>
+        <v>-3097650</v>
       </c>
       <c r="D19" s="5">
-        <v>-0.47935454860156956</v>
+        <v>-0.5249070972136789</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,25 +1109,25 @@
         <v>2</v>
       </c>
       <c r="B21" s="7">
-        <v>5166700</v>
+        <v>4992250</v>
       </c>
       <c r="C21" s="7">
-        <v>-1722405</v>
+        <v>-1906345</v>
       </c>
       <c r="D21" s="5">
-        <v>-0.33336655892542627</v>
+        <v>-0.3818608843707747</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7">
-        <v>298535.7</v>
+        <v>273102</v>
       </c>
       <c r="D22" s="5">
-        <v>5.7780730446900345E-2</v>
+        <v>5.4705193049226303E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -807,16 +1135,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="6">
-        <v>10770840</v>
+        <v>10893580</v>
       </c>
       <c r="C23" s="6">
-        <v>-4408775</v>
+        <v>-5003995</v>
       </c>
       <c r="D23" s="5">
-        <v>-0.40932508513727806</v>
+        <v>-0.45935266459694607</v>
       </c>
       <c r="E23">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +1152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA7DE61-BBCF-4D9C-9297-1085B1D8263C}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1155,7 +1483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373050F8-72D0-4C2F-8B80-26C88CE91628}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1486,7 +1814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E153650-B0E8-466D-8F31-78659B503768}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1817,7 +2145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CD9C1-2030-4328-9D69-E157E8DC4B84}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2148,7 +2476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC193AA-68B5-4D75-8672-E97855DF0173}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2479,7 +2807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD628C-CC42-43B0-A721-1E91130D13A5}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2810,7 +3138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D397C17-7D11-44D9-80F7-712E06707A25}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3141,7 +3469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B6815-B29A-446B-B4C9-96F02B6A5E9D}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3472,7 +3800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEBF241-CA72-4CB5-8C3F-136F3E8408B6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3803,7 +4131,338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542C8022-6FAB-4827-AFA2-E1EDA7432C87}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45989</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1256.69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>-4.032836960672008E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1752300</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-1075520</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.61377617987787481</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3248500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1365410</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.42032014776050486</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>603340</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-449480</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.74498624324593099</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5604140</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2890410</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.51576334638320953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5166700</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1747535</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.33823039851355796</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>284160</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.4998354849323555E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10770840</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-4637945</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.43060197719026555</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45961</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1309.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1752300</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-982080</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.56045197740112995</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3248500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1269700</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.39085731876250579</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>603340</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-434590</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.72030695793416644</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5604140</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2686370</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.47935454860156956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5166700</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1722405</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.33336655892542627</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>298535.7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.7780730446900345E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10770840</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-4408775</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.40932508513727806</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D4DEBF-7012-4D3C-9A89-43C32C47B6EC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4134,338 +4793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165FC00D-7E5D-4548-BEF2-5CBFB9DBC724}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45961</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1309.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" s="8">
-        <f>(E1-E13)/E13</f>
-        <v>2.4054929070804067E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1752300</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-982080</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.56045197740112995</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3248500</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-1269700</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.39085731876250579</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>603340</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-434590</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.72030695793416644</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5604140</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-2686370</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.47935454860156956</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5166700</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-1722405</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.33336655892542627</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>298535.7</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>5.7780730446900345E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>10770840</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-4408775</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.40932508513727806</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45926</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1278.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="8">
-        <v>-1.0814406832105961E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1752300</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-890220</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.50802944701249786</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3249040</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-1208130</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.37184214414103861</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>572540</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-401820</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.70181996017745485</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5573880</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-2500170</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.44855109905487739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5166700</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-1681725</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.32549306133508815</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>298535.7</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5.7780730446900345E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>10740580</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-4181895</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.38935467172163885</v>
-      </c>
-      <c r="E23">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C4D270-1B52-4C5B-9E28-60314EA92662}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4796,7 +5124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C31B2-332E-43CB-8F48-59EA1BD2A5D3}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5127,7 +5455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5462,6 +5790,337 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165FC00D-7E5D-4548-BEF2-5CBFB9DBC724}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45961</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1309.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <f>(E1-E13)/E13</f>
+        <v>2.4054929070804067E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1752300</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-982080</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.56045197740112995</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3248500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1269700</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.39085731876250579</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>603340</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-434590</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.72030695793416644</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5604140</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2686370</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.47935454860156956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5166700</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1722405</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.33336655892542627</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>298535.7</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>5.7780730446900345E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10770840</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-4408775</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.40932508513727806</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45926</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1278.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>-1.0814406832105961E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1752300</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-890220</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.50802944701249786</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3249040</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-1208130</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.37184214414103861</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>572540</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-401820</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.70181996017745485</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5573880</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2500170</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.44855109905487739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5166700</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1681725</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.32549306133508815</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>298535.7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.7780730446900345E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10740580</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-4181895</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.38935467172163885</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142E41C8-5056-4759-B54A-4980815EFEAB}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5792,7 +6451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B914B260-76A6-4468-8847-C732969CD1A1}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -6123,7 +6782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699E09FF-5543-4627-B869-059368E93B21}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -6454,7 +7113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E0E9D-AFC7-48C4-8BA4-CDBEFA563129}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -6785,7 +7444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6F400C-8AD0-4837-BB77-C3C717B678B6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -7116,7 +7775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F32CB65-9456-4E75-B848-3BAB2F7365C7}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -7445,335 +8104,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EF463-2F30-449E-9ACA-B3134C3C5447}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45856</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1206.58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" s="8">
-        <f>(E1-E13)/E13</f>
-        <v>7.7361287211814803E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>503540</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-350840</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.69674703102037572</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3591550</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-1314900</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.36610933997856077</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1632240</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1153940</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.70696711267950796</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5727330</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-2819680</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.49232015616351771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5036250</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-1834700</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.36429883345743358</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>276670</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>5.4935716058575328E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>10763580</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-4654380</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.43241932516876358</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45842</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1119.94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="8">
-        <v>3.4663069788067456E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>677540</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-489280</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.72214186616288334</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3591550</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-1415000</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.39398031490582058</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1632240</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1193370</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.73112409939714751</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5901330</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-3097650</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.5249070972136789</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4992250</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-1906345</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.3818608843707747</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>273102</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5.4705193049226303E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>10893580</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-5003995</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.45935266459694607</v>
-      </c>
-      <c r="E23">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>